--- a/biology/Médecine/Ocimum/Ocimum.xlsx
+++ b/biology/Médecine/Ocimum/Ocimum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ocimum est un genre de plantes de la famille des Lamiaceae (Lamiacées), sous-famille des Nepetoideae (Népétoïdées), tribu des Ocimeae (Ocimées).
 Il compte environ 150 espèces de plantes herbacées ou buissonnantes, annuelles ou vivaces, généralement aromatiques, dont la plus connue est le Basilic commun (Ocimum basilicum).
@@ -512,7 +524,9 @@
           <t>Description botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tiges quadrangulaires, en général ligneuses à leur base et très ramifiées.
 Feuilles pétiolées, opposées, membraneuses, marges entières ou serratées.
@@ -550,7 +564,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La taxonomie de ce genre a subi des bouleversements fréquents, aussi les synonymies sont nombreuses, et il n'est pas rare qu'un même nom désigne, suivant l'auteur, deux espèces différentes.
 Ocimum americanum L. Plante herbacée. 10 à 50 cm. Fleurs 5 mm blanches ou pourpre clair. Présent à Madagascar, Afrique tropicale, Péninsule Arabique, Asie du Sud, du niveau de la mer à 450 m. Aromatique souvent cultivée.
@@ -594,10 +610,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Ocimum contient une soixantaine d’espèces.
-Selon World Checklist of Selected Plant Families (WCSP)  (10 sept. 2012)[1] :
+Selon World Checklist of Selected Plant Families (WCSP)  (10 sept. 2012) :
 Ocimum × africanum Lour., (1790)
 Ocimum albostellatum (Verdc.) A.J.Paton, (1999)
 Ocimum americanum L., (1755)
@@ -707,9 +725,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (10 sept. 2012)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (10 sept. 2012) :
 EN COURS
 </t>
         </is>
